--- a/PartSegment/分数对比.xlsx
+++ b/PartSegment/分数对比.xlsx
@@ -1,218 +1,175 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\3D-Point-Cloud-Semantic-Segement-Paper\PartSegment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C704C2A6-AC56-4645-9FA7-EA05D6B5932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="ShapeNet part dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="ShapeNet part" sheetId="1" r:id="rId1"/>
     <sheet name="PartNet" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="S3DIS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>ShapeNet-Part部件分割数据集</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>mcIoU（平均类别IOU）</t>
+  </si>
+  <si>
+    <t>mIoU（平均实例IoU）</t>
+  </si>
+  <si>
+    <t>论文名称</t>
+  </si>
   <si>
     <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShapeNet-Part部件分割数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论文名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcIoU（平均类别IOU）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mIoU（平均实例IoU）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主要方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>air-plane</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>car</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ear-phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>guitar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>knife</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>laptop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> motor-bike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> pistol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> rocket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> skate-board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PointNet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017a</t>
   </si>
   <si>
     <t>PointNet++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017b</t>
   </si>
   <si>
     <t>PointCNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018b</t>
   </si>
   <si>
     <t>DGCNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PointConv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KPConv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PointTransformer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CloudTransformer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SPH3D-GCN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PCT(PointCloudTransformer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GCN+Transformer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point+Transformer</t>
   </si>
   <si>
     <t>KD-Net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SO-Net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2018a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SpiderCNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SFCNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Feature Geometric Net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GDANet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Spherical Kernel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Multi-scale U-Net + Delaunay triangulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DensePoint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,30 +178,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -252,9 +524,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -262,27 +776,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -569,403 +1127,422 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.88333333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="43.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="10.1083333333333" customWidth="1"/>
+    <col min="13" max="13" width="10.8833333333333" customWidth="1"/>
+    <col min="17" max="17" width="7.66666666666667" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" customWidth="1"/>
+    <col min="22" max="22" width="13.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4">
-        <v>80.400000000000006</v>
+        <v>80.4</v>
       </c>
       <c r="C4">
         <v>83.7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5">
-        <v>81.900000000000006</v>
+        <v>81.9</v>
       </c>
       <c r="C5">
         <v>85.1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6">
         <v>84.6</v>
       </c>
       <c r="C6">
         <v>86.1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7">
         <v>82.3</v>
       </c>
       <c r="C7">
         <v>85.1</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8">
         <v>82.8</v>
       </c>
       <c r="C8">
         <v>85.7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9">
         <v>85.1</v>
       </c>
       <c r="C9">
         <v>86.4</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E9">
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10">
         <v>83.7</v>
       </c>
       <c r="C10">
         <v>86.6</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E10">
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11">
         <v>84.8</v>
       </c>
       <c r="C11">
         <v>86.1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E11">
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12">
         <v>84.9</v>
       </c>
       <c r="C12">
         <v>86.8</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6">
       <c r="C13">
         <v>86.4</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E13">
         <v>2021</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="C14">
         <v>82.3</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E14">
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15">
         <v>81</v>
       </c>
       <c r="C15">
         <v>84.9</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="B16">
         <v>81.7</v>
       </c>
       <c r="C16">
         <v>85.3</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>82.7</v>
       </c>
       <c r="C17">
         <v>85.4</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18">
         <v>87.7</v>
       </c>
       <c r="C18">
         <v>86.6</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E18">
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19">
         <v>85</v>
       </c>
       <c r="C19">
         <v>86.5</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E19">
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20">
         <v>84.9</v>
       </c>
       <c r="C20">
         <v>86.8</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E20">
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21">
         <v>84.6</v>
       </c>
       <c r="C21">
         <v>88.8</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E21">
         <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22">
+        <v>84.2</v>
+      </c>
+      <c r="C22">
+        <v>86.4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L6"/>
+      <selection activeCell="A1" sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>